--- a/projects/test_building/input/_Scenario_Infrastructure_GasGrid.xlsx
+++ b/projects/test_building/input/_Scenario_Infrastructure_GasGrid.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344D8A57-2276-0F4F-9470-9FE3F0DB7423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -32,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -41,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 percentage of buildings = buildings with access to such infrastructure</t>
@@ -53,15 +54,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>id_region</t>
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>id_scenario</t>
   </si>
   <si>
     <t>2019</t>
@@ -82,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,14 +93,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,16 +143,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G8" totalsRowShown="0">
-  <autoFilter ref="A1:G8"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="id_scenario"/>
-    <tableColumn id="2" name="id_region"/>
-    <tableColumn id="3" name="id_building_location"/>
-    <tableColumn id="4" name="unit"/>
-    <tableColumn id="6" name="2019"/>
-    <tableColumn id="7" name="2020"/>
-    <tableColumn id="8" name="2021"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_building_location"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,56 +419,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -479,22 +472,19 @@
       <c r="F2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
       </c>
       <c r="E3">
         <v>0.4</v>
@@ -502,22 +492,19 @@
       <c r="F3">
         <v>0.4</v>
       </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
       </c>
       <c r="E4">
         <v>0.3</v>
@@ -525,22 +512,19 @@
       <c r="F4">
         <v>0.3</v>
       </c>
-      <c r="G4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -548,22 +532,19 @@
       <c r="F5">
         <v>0.2</v>
       </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -571,22 +552,19 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -594,30 +572,24 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
         <v>0</v>
       </c>
     </row>
